--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -147,7 +147,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -455,7 +457,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
